--- a/Code/Results/Cases/Case_5_201/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_201/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.284370824024734</v>
+        <v>2.767168770400019</v>
       </c>
       <c r="C2">
-        <v>0.7878977319863907</v>
+        <v>0.3573878827427563</v>
       </c>
       <c r="D2">
-        <v>0.009766421664551217</v>
+        <v>0.009189471803228599</v>
       </c>
       <c r="E2">
-        <v>0.02349842073054909</v>
+        <v>0.04535142159905181</v>
       </c>
       <c r="F2">
-        <v>2.24245369516089</v>
+        <v>3.696417607250041</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,22 +442,22 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.186746498543336</v>
+        <v>2.157564468342706</v>
       </c>
       <c r="J2">
-        <v>0.050417701930634</v>
+        <v>0.1037402433238146</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2253541765136617</v>
+        <v>0.3924357081746805</v>
       </c>
       <c r="M2">
-        <v>0.571136404145193</v>
+        <v>0.5907380481850169</v>
       </c>
       <c r="N2">
-        <v>1.248830954980896</v>
+        <v>2.567041630754666</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.88297931072259</v>
+        <v>2.678631307482931</v>
       </c>
       <c r="C3">
-        <v>0.6811426203686608</v>
+        <v>0.3305849875997637</v>
       </c>
       <c r="D3">
-        <v>0.008194885382135197</v>
+        <v>0.008639454830511539</v>
       </c>
       <c r="E3">
-        <v>0.02244604017929053</v>
+        <v>0.044987651525072</v>
       </c>
       <c r="F3">
-        <v>2.118075531532241</v>
+        <v>3.688666605529249</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,22 +489,22 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.144480394757046</v>
+        <v>2.160225284905678</v>
       </c>
       <c r="J3">
-        <v>0.05036002219279556</v>
+        <v>0.1037164097845853</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2077451628609523</v>
+        <v>0.3902464738432059</v>
       </c>
       <c r="M3">
-        <v>0.5060706328181723</v>
+        <v>0.5774678069625523</v>
       </c>
       <c r="N3">
-        <v>1.308836862773504</v>
+        <v>2.590871131174119</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.640574912950285</v>
+        <v>2.625770047447475</v>
       </c>
       <c r="C4">
-        <v>0.6166566079624261</v>
+        <v>0.3143289265098588</v>
       </c>
       <c r="D4">
-        <v>0.007274180815389997</v>
+        <v>0.008297585276089592</v>
       </c>
       <c r="E4">
-        <v>0.02180650364768866</v>
+        <v>0.04475934156067929</v>
       </c>
       <c r="F4">
-        <v>2.046086346559775</v>
+        <v>3.685739604632062</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,22 +536,22 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.120896917935184</v>
+        <v>2.162872607125458</v>
       </c>
       <c r="J4">
-        <v>0.05033156734183919</v>
+        <v>0.1037040203126169</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.197237596587172</v>
+        <v>0.3890673088530008</v>
       </c>
       <c r="M4">
-        <v>0.4668563491942663</v>
+        <v>0.5696262734234452</v>
       </c>
       <c r="N4">
-        <v>1.347417447853417</v>
+        <v>2.606282021093925</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.542697251813877</v>
+        <v>2.604605926700799</v>
       </c>
       <c r="C5">
-        <v>0.5906091833914218</v>
+        <v>0.3077545846122689</v>
       </c>
       <c r="D5">
-        <v>0.006908462021929296</v>
+        <v>0.008157181559234061</v>
       </c>
       <c r="E5">
-        <v>0.02154708550779372</v>
+        <v>0.04466504598543164</v>
       </c>
       <c r="F5">
-        <v>2.017769978007621</v>
+        <v>3.685006833174327</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,22 +583,22 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.111841769584622</v>
+        <v>2.164205901958354</v>
       </c>
       <c r="J5">
-        <v>0.05032165081921569</v>
+        <v>0.1036995374742373</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1930263612071457</v>
+        <v>0.3886283279267033</v>
       </c>
       <c r="M5">
-        <v>0.4510422679733637</v>
+        <v>0.5665078430751151</v>
       </c>
       <c r="N5">
-        <v>1.363561024310776</v>
+        <v>2.612757886682473</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.526496160151851</v>
+        <v>2.601114421895716</v>
       </c>
       <c r="C6">
-        <v>0.5862969929644066</v>
+        <v>0.3066659361981863</v>
       </c>
       <c r="D6">
-        <v>0.006848261698955582</v>
+        <v>0.008133800573290273</v>
       </c>
       <c r="E6">
-        <v>0.02150406877611388</v>
+        <v>0.04464931198927236</v>
       </c>
       <c r="F6">
-        <v>2.013127396658405</v>
+        <v>3.684912919966493</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,22 +630,22 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.110370592106399</v>
+        <v>2.164442654093058</v>
       </c>
       <c r="J6">
-        <v>0.0503201036575307</v>
+        <v>0.1036988273336164</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1923311947173758</v>
+        <v>0.3885579454863688</v>
       </c>
       <c r="M6">
-        <v>0.4484258505660321</v>
+        <v>0.5659946843121944</v>
       </c>
       <c r="N6">
-        <v>1.366266703887945</v>
+        <v>2.613845019354045</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.639251385099271</v>
+        <v>2.62548309340599</v>
       </c>
       <c r="C7">
-        <v>0.6163044327777811</v>
+        <v>0.3142400601812767</v>
       </c>
       <c r="D7">
-        <v>0.007269212303853578</v>
+        <v>0.008295696209277281</v>
       </c>
       <c r="E7">
-        <v>0.02180300078175712</v>
+        <v>0.04475807496404727</v>
       </c>
       <c r="F7">
-        <v>2.045700436069851</v>
+        <v>3.685727860625377</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,22 +677,22 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.120772599458526</v>
+        <v>2.162889558505675</v>
       </c>
       <c r="J7">
-        <v>0.05033142689435088</v>
+        <v>0.1037039575612777</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1971805236335342</v>
+        <v>0.3890612203617465</v>
       </c>
       <c r="M7">
-        <v>0.4666424267871747</v>
+        <v>0.5695839051754348</v>
       </c>
       <c r="N7">
-        <v>1.347633477420054</v>
+        <v>2.606368564371792</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.145058118386487</v>
+        <v>2.736329342627357</v>
       </c>
       <c r="C8">
-        <v>0.7508455813604087</v>
+        <v>0.3481042622232735</v>
       </c>
       <c r="D8">
-        <v>0.009214338957619361</v>
+        <v>0.009000662188476838</v>
       </c>
       <c r="E8">
-        <v>0.02313388799933236</v>
+        <v>0.04522701464574919</v>
       </c>
       <c r="F8">
-        <v>2.198608073652636</v>
+        <v>3.693364361819263</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,22 +724,22 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.17165647795089</v>
+        <v>2.158271316009156</v>
       </c>
       <c r="J8">
-        <v>0.05039632387052428</v>
+        <v>0.1037315606174278</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2192157199222891</v>
+        <v>0.3916466290038798</v>
       </c>
       <c r="M8">
-        <v>0.5485369034891008</v>
+        <v>0.586098858369219</v>
       </c>
       <c r="N8">
-        <v>1.269151115366085</v>
+        <v>2.575096140284032</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.174809904292204</v>
+        <v>2.965633683675833</v>
       </c>
       <c r="C9">
-        <v>1.024899782974501</v>
+        <v>0.4161294350551543</v>
       </c>
       <c r="D9">
-        <v>0.0134624973664792</v>
+        <v>0.01035213267090285</v>
       </c>
       <c r="E9">
-        <v>0.02582003082484263</v>
+        <v>0.0461078570859712</v>
       </c>
       <c r="F9">
-        <v>2.537249937959601</v>
+        <v>3.722914251355007</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,22 +771,22 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.292219818948354</v>
+        <v>2.157276658493075</v>
       </c>
       <c r="J9">
-        <v>0.05058249478899057</v>
+        <v>0.1038034384508837</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2651343845568164</v>
+        <v>0.3980251022053238</v>
       </c>
       <c r="M9">
-        <v>0.7159265340193386</v>
+        <v>0.6209188409758113</v>
       </c>
       <c r="N9">
-        <v>1.129768355549416</v>
+        <v>2.519964152420577</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.963339380891739</v>
+        <v>3.141436773030534</v>
       </c>
       <c r="C10">
-        <v>1.235269384865035</v>
+        <v>0.4671303913287375</v>
       </c>
       <c r="D10">
-        <v>0.01697879572187588</v>
+        <v>0.01132903325937562</v>
       </c>
       <c r="E10">
-        <v>0.0278774768710921</v>
+        <v>0.04673220311902693</v>
       </c>
       <c r="F10">
-        <v>2.815954305346338</v>
+        <v>3.753569981616181</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.396545368780835</v>
+        <v>2.161490814973732</v>
       </c>
       <c r="J10">
-        <v>0.05076113861780662</v>
+        <v>0.1038670009276093</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.300974522720665</v>
+        <v>0.403508869842014</v>
       </c>
       <c r="M10">
-        <v>0.8445288122093686</v>
+        <v>0.647992586528261</v>
       </c>
       <c r="N10">
-        <v>1.037357898079946</v>
+        <v>2.483244440010111</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.331264393530262</v>
+        <v>3.223020637216678</v>
       </c>
       <c r="C11">
-        <v>1.333645053456394</v>
+        <v>0.4905624910067559</v>
       </c>
       <c r="D11">
-        <v>0.01869848477184277</v>
+        <v>0.01177059343518394</v>
       </c>
       <c r="E11">
-        <v>0.02884149068497699</v>
+        <v>0.04701145940366036</v>
       </c>
       <c r="F11">
-        <v>2.950829566917974</v>
+        <v>3.769472287082749</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,22 +865,22 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.448208940213945</v>
+        <v>2.16448858152286</v>
       </c>
       <c r="J11">
-        <v>0.05085310214364647</v>
+        <v>0.1038982398577843</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.3178508697168496</v>
+        <v>0.406176810923867</v>
       </c>
       <c r="M11">
-        <v>0.9046298166760423</v>
+        <v>0.6606349379672309</v>
       </c>
       <c r="N11">
-        <v>0.9977804765182796</v>
+        <v>2.467364006691142</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.472127748639707</v>
+        <v>3.254146587533853</v>
       </c>
       <c r="C12">
-        <v>1.37135045694032</v>
+        <v>0.4994694771293666</v>
       </c>
       <c r="D12">
-        <v>0.01937030416691954</v>
+        <v>0.01193744266516461</v>
       </c>
       <c r="E12">
-        <v>0.02921153057093928</v>
+        <v>0.04711653529518767</v>
       </c>
       <c r="F12">
-        <v>3.00321838986963</v>
+        <v>3.775776478165653</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,22 +912,22 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.46845201865132</v>
+        <v>2.165779689439148</v>
       </c>
       <c r="J12">
-        <v>0.05088962463811875</v>
+        <v>0.1039104022071324</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.324334692169316</v>
+        <v>0.4072120051474712</v>
       </c>
       <c r="M12">
-        <v>0.9276540459085325</v>
+        <v>0.6654692879338455</v>
       </c>
       <c r="N12">
-        <v>0.9831756804354796</v>
+        <v>2.461469172150906</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.441718232089841</v>
+        <v>3.247432736640235</v>
       </c>
       <c r="C13">
-        <v>1.363208621116371</v>
+        <v>0.4975496893531499</v>
       </c>
       <c r="D13">
-        <v>0.01922464086346309</v>
+        <v>0.01190152394362798</v>
       </c>
       <c r="E13">
-        <v>0.02913159734469684</v>
+        <v>0.04709393502967973</v>
       </c>
       <c r="F13">
-        <v>2.991874453027521</v>
+        <v>3.77440618581241</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,22 +959,22 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.464060816892527</v>
+        <v>2.165494683460793</v>
       </c>
       <c r="J13">
-        <v>0.05088168053124598</v>
+        <v>0.1039077680451985</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.3229339577679013</v>
+        <v>0.4069879503575464</v>
       </c>
       <c r="M13">
-        <v>0.9226829587440548</v>
+        <v>0.6644260347499866</v>
       </c>
       <c r="N13">
-        <v>0.986303588799025</v>
+        <v>2.462733444097495</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.342821170036473</v>
+        <v>3.225576737791869</v>
       </c>
       <c r="C14">
-        <v>1.336737609279282</v>
+        <v>0.4912945948389051</v>
       </c>
       <c r="D14">
-        <v>0.01875332186139289</v>
+        <v>0.01178432716183764</v>
       </c>
       <c r="E14">
-        <v>0.02887182816351164</v>
+        <v>0.0470201174653484</v>
       </c>
       <c r="F14">
-        <v>2.955112351469921</v>
+        <v>3.769985272855251</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,22 +1006,22 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.449860278806057</v>
+        <v>2.164591673938517</v>
       </c>
       <c r="J14">
-        <v>0.05085607183645813</v>
+        <v>0.1038992337983942</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3183823650440445</v>
+        <v>0.4062614780188483</v>
       </c>
       <c r="M14">
-        <v>0.9065184994807041</v>
+        <v>0.6610317213680119</v>
       </c>
       <c r="N14">
-        <v>0.9965710930199378</v>
+        <v>2.466876653528267</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.282450923170529</v>
+        <v>3.212219520704764</v>
       </c>
       <c r="C15">
-        <v>1.320584455425546</v>
+        <v>0.4874675792034395</v>
       </c>
       <c r="D15">
-        <v>0.01846741667354479</v>
+        <v>0.01171249529203067</v>
       </c>
       <c r="E15">
-        <v>0.0287133923117846</v>
+        <v>0.04697481487716715</v>
       </c>
       <c r="F15">
-        <v>2.932770484751813</v>
+        <v>3.767314132318603</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,22 +1053,22 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.441252858208543</v>
+        <v>2.164058875112261</v>
       </c>
       <c r="J15">
-        <v>0.05084061206309265</v>
+        <v>0.1038940496326859</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.3156068519705144</v>
+        <v>0.4058197351275936</v>
       </c>
       <c r="M15">
-        <v>0.8966529707977884</v>
+        <v>0.6589587238595769</v>
       </c>
       <c r="N15">
-        <v>1.002910930928039</v>
+        <v>2.469429961998671</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.939497709328293</v>
+        <v>3.136137507340095</v>
       </c>
       <c r="C16">
-        <v>1.228899774216472</v>
+        <v>0.4656037468789691</v>
       </c>
       <c r="D16">
-        <v>0.0168691017412641</v>
+        <v>0.01130012326481378</v>
       </c>
       <c r="E16">
-        <v>0.027815119530473</v>
+        <v>0.04671385829664043</v>
       </c>
       <c r="F16">
-        <v>2.807315200089675</v>
+        <v>3.752570185415493</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,22 +1100,22 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.393259818667488</v>
+        <v>2.161316694366377</v>
       </c>
       <c r="J16">
-        <v>0.05075535692201782</v>
+        <v>0.1038650060398716</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2998840274370735</v>
+        <v>0.4033379996944859</v>
       </c>
       <c r="M16">
-        <v>0.840636173650843</v>
+        <v>0.6471729493325071</v>
       </c>
       <c r="N16">
-        <v>1.039996244217079</v>
+        <v>2.484298862387369</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.731611524781385</v>
+        <v>3.089876312570141</v>
       </c>
       <c r="C17">
-        <v>1.173385505280635</v>
+        <v>0.4522506194144285</v>
       </c>
       <c r="D17">
-        <v>0.0159215819666727</v>
+        <v>0.01104645375632174</v>
       </c>
       <c r="E17">
-        <v>0.0272718843124462</v>
+        <v>0.04655255901742716</v>
       </c>
       <c r="F17">
-        <v>2.732526619782291</v>
+        <v>3.744027112404581</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,22 +1147,22 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.364944959570494</v>
+        <v>2.159911616093154</v>
       </c>
       <c r="J17">
-        <v>0.0507059013969382</v>
+        <v>0.1038477830040598</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2903924981366259</v>
+        <v>0.4018599159927447</v>
       </c>
       <c r="M17">
-        <v>0.8067051015970677</v>
+        <v>0.6400263721896025</v>
       </c>
       <c r="N17">
-        <v>1.063396279156194</v>
+        <v>2.493631603885426</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.612894490521342</v>
+        <v>3.063419628466704</v>
       </c>
       <c r="C18">
-        <v>1.141702667912966</v>
+        <v>0.4445920159603816</v>
       </c>
       <c r="D18">
-        <v>0.01538767318133338</v>
+        <v>0.01090027985980058</v>
       </c>
       <c r="E18">
-        <v>0.02696200763861079</v>
+        <v>0.0464593349857827</v>
       </c>
       <c r="F18">
-        <v>2.690261745820195</v>
+        <v>3.739297494425244</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,22 +1194,22 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.349049872805509</v>
+        <v>2.159205144083103</v>
       </c>
       <c r="J18">
-        <v>0.05067845186434461</v>
+        <v>0.103838095597375</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2849863898915714</v>
+        <v>0.4010260789923024</v>
       </c>
       <c r="M18">
-        <v>0.7873370198857614</v>
+        <v>0.6359465670525992</v>
       </c>
       <c r="N18">
-        <v>1.077085059817001</v>
+        <v>2.499077046893511</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.572839484628503</v>
+        <v>3.054487864600389</v>
       </c>
       <c r="C19">
-        <v>1.13101598545893</v>
+        <v>0.4420026679844113</v>
       </c>
       <c r="D19">
-        <v>0.01520870947920372</v>
+        <v>0.01085074008192422</v>
       </c>
       <c r="E19">
-        <v>0.02685750459834146</v>
+        <v>0.04642769344803455</v>
       </c>
       <c r="F19">
-        <v>2.676076354658036</v>
+        <v>3.737727723507987</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,22 +1241,22 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.343733076606497</v>
+        <v>2.158983395022261</v>
       </c>
       <c r="J19">
-        <v>0.05066932452248629</v>
+        <v>0.1038348532337778</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2831647978078564</v>
+        <v>0.4007465594536939</v>
       </c>
       <c r="M19">
-        <v>0.7808037605762195</v>
+        <v>0.634570489840975</v>
       </c>
       <c r="N19">
-        <v>1.08175848503825</v>
+        <v>2.500934080987648</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.75365156148348</v>
+        <v>3.094785210208158</v>
       </c>
       <c r="C20">
-        <v>1.179269015057343</v>
+        <v>0.4536698269426438</v>
       </c>
       <c r="D20">
-        <v>0.01602127766591366</v>
+        <v>0.01107348489642135</v>
       </c>
       <c r="E20">
-        <v>0.027329439357481</v>
+        <v>0.04656977597607259</v>
       </c>
       <c r="F20">
-        <v>2.740409174422268</v>
+        <v>3.744917473505666</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,22 +1288,22 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.36791815993351</v>
+        <v>2.160050660718383</v>
       </c>
       <c r="J20">
-        <v>0.05071106186562879</v>
+        <v>0.1038495937877517</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2913973107677066</v>
+        <v>0.4020155718946228</v>
       </c>
       <c r="M20">
-        <v>0.8103015442736989</v>
+        <v>0.6407839582045014</v>
       </c>
       <c r="N20">
-        <v>1.060881337230775</v>
+        <v>2.492630094762262</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.371826066982635</v>
+        <v>3.231990077322337</v>
       </c>
       <c r="C21">
-        <v>1.344499919783971</v>
+        <v>0.4931309477615287</v>
       </c>
       <c r="D21">
-        <v>0.01889117132493467</v>
+        <v>0.01181876008401161</v>
       </c>
       <c r="E21">
-        <v>0.02894798500444828</v>
+        <v>0.04704181762337001</v>
       </c>
       <c r="F21">
-        <v>2.965873301237622</v>
+        <v>3.771276132134574</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,22 +1335,22 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.454012248384814</v>
+        <v>2.164852674005658</v>
       </c>
       <c r="J21">
-        <v>0.05086354625013989</v>
+        <v>0.1039017314904758</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3197166585270423</v>
+        <v>0.4064741848837627</v>
       </c>
       <c r="M21">
-        <v>0.9112588903135901</v>
+        <v>0.6620274385487406</v>
       </c>
       <c r="N21">
-        <v>0.9935446573422198</v>
+        <v>2.465656467338313</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.784922435446219</v>
+        <v>3.323013341181593</v>
       </c>
       <c r="C22">
-        <v>1.45516424498129</v>
+        <v>0.5191180643458324</v>
       </c>
       <c r="D22">
-        <v>0.02088885661721562</v>
+        <v>0.01230376454229898</v>
       </c>
       <c r="E22">
-        <v>0.03003542192925845</v>
+        <v>0.04734641064543244</v>
       </c>
       <c r="F22">
-        <v>3.120973011841301</v>
+        <v>3.790149142401077</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,22 +1382,22 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.514280096255192</v>
+        <v>2.168900125759279</v>
       </c>
       <c r="J22">
-        <v>0.05097319388495691</v>
+        <v>0.1039377459707715</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3387737252801202</v>
+        <v>0.4095332890088486</v>
       </c>
       <c r="M22">
-        <v>0.9788062547569467</v>
+        <v>0.6761850534748461</v>
       </c>
       <c r="N22">
-        <v>0.9517805806883999</v>
+        <v>2.448719907082314</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.563536775148975</v>
+        <v>3.274308677796739</v>
       </c>
       <c r="C23">
-        <v>1.395831057062594</v>
+        <v>0.505230069745437</v>
       </c>
       <c r="D23">
-        <v>0.01981025508237622</v>
+        <v>0.01204508254370396</v>
       </c>
       <c r="E23">
-        <v>0.02945197418833878</v>
+        <v>0.04718419759761439</v>
       </c>
       <c r="F23">
-        <v>3.037429744025815</v>
+        <v>3.77992532776517</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,22 +1429,22 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.481720898084916</v>
+        <v>2.166656574021928</v>
       </c>
       <c r="J23">
-        <v>0.05091369905722587</v>
+        <v>0.1039183473368812</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3285484850676426</v>
+        <v>0.4078873145606394</v>
       </c>
       <c r="M23">
-        <v>0.9425988440331636</v>
+        <v>0.668603805062979</v>
       </c>
       <c r="N23">
-        <v>0.973855119473356</v>
+        <v>2.457695819566545</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.743684786344488</v>
+        <v>3.092565463107746</v>
       </c>
       <c r="C24">
-        <v>1.176608359374029</v>
+        <v>0.4530281462971857</v>
       </c>
       <c r="D24">
-        <v>0.01597617174444821</v>
+        <v>0.01106126516805261</v>
       </c>
       <c r="E24">
-        <v>0.02730341120261226</v>
+        <v>0.0465619937194317</v>
       </c>
       <c r="F24">
-        <v>2.736843202389764</v>
+        <v>3.744514374686275</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,22 +1476,22 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.366572787037839</v>
+        <v>2.159987483052845</v>
       </c>
       <c r="J24">
-        <v>0.05070872576722429</v>
+        <v>0.1038487744651313</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2909428778622072</v>
+        <v>0.4019451502311426</v>
       </c>
       <c r="M24">
-        <v>0.8086751611301253</v>
+        <v>0.6404413636828394</v>
       </c>
       <c r="N24">
-        <v>1.06201761015592</v>
+        <v>2.493082628087798</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.89131969209825</v>
+        <v>2.902317230790402</v>
       </c>
       <c r="C25">
-        <v>0.9493968247024327</v>
+        <v>0.3975498781706506</v>
       </c>
       <c r="D25">
-        <v>0.01225430055189491</v>
+        <v>0.00998954579001321</v>
       </c>
       <c r="E25">
-        <v>0.02508160638943657</v>
+        <v>0.04587363032348879</v>
       </c>
       <c r="F25">
-        <v>2.440879464539123</v>
+        <v>3.713353733863883</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,22 +1523,22 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.257081292640763</v>
+        <v>2.156679580816885</v>
       </c>
       <c r="J25">
-        <v>0.05052526071627383</v>
+        <v>0.1037821004900454</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2523783485983557</v>
+        <v>0.3961594989406763</v>
       </c>
       <c r="M25">
-        <v>0.6697724237178662</v>
+        <v>0.6112377519734977</v>
       </c>
       <c r="N25">
-        <v>1.165810318456963</v>
+        <v>2.534214764090862</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_201/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_201/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.767168770400019</v>
+        <v>3.28437082402462</v>
       </c>
       <c r="C2">
-        <v>0.3573878827427563</v>
+        <v>0.7878977319863054</v>
       </c>
       <c r="D2">
-        <v>0.009189471803228599</v>
+        <v>0.00976642166455477</v>
       </c>
       <c r="E2">
-        <v>0.04535142159905181</v>
+        <v>0.02349842073055086</v>
       </c>
       <c r="F2">
-        <v>3.696417607250041</v>
+        <v>2.24245369516089</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,22 +442,22 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.157564468342706</v>
+        <v>1.186746498543329</v>
       </c>
       <c r="J2">
-        <v>0.1037402433238146</v>
+        <v>0.05041770193058248</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3924357081746805</v>
+        <v>0.2253541765136333</v>
       </c>
       <c r="M2">
-        <v>0.5907380481850169</v>
+        <v>0.571136404145193</v>
       </c>
       <c r="N2">
-        <v>2.567041630754666</v>
+        <v>1.248830954980932</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.678631307482931</v>
+        <v>2.882979310722533</v>
       </c>
       <c r="C3">
-        <v>0.3305849875997637</v>
+        <v>0.6811426203690871</v>
       </c>
       <c r="D3">
-        <v>0.008639454830511539</v>
+        <v>0.008194885381914929</v>
       </c>
       <c r="E3">
-        <v>0.044987651525072</v>
+        <v>0.02244604017928786</v>
       </c>
       <c r="F3">
-        <v>3.688666605529249</v>
+        <v>2.118075531532213</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,22 +489,22 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.160225284905678</v>
+        <v>1.144480394757039</v>
       </c>
       <c r="J3">
-        <v>0.1037164097845853</v>
+        <v>0.05036002219277957</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3902464738432059</v>
+        <v>0.2077451628608245</v>
       </c>
       <c r="M3">
-        <v>0.5774678069625523</v>
+        <v>0.5060706328181723</v>
       </c>
       <c r="N3">
-        <v>2.590871131174119</v>
+        <v>1.308836862773489</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.625770047447475</v>
+        <v>2.640574912950342</v>
       </c>
       <c r="C4">
-        <v>0.3143289265098588</v>
+        <v>0.6166566079624261</v>
       </c>
       <c r="D4">
-        <v>0.008297585276089592</v>
+        <v>0.007274180815382891</v>
       </c>
       <c r="E4">
-        <v>0.04475934156067929</v>
+        <v>0.02180650364768688</v>
       </c>
       <c r="F4">
-        <v>3.685739604632062</v>
+        <v>2.046086346559775</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,22 +536,22 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.162872607125458</v>
+        <v>1.120896917935177</v>
       </c>
       <c r="J4">
-        <v>0.1037040203126169</v>
+        <v>0.05033156734187649</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3890673088530008</v>
+        <v>0.1972375965871649</v>
       </c>
       <c r="M4">
-        <v>0.5696262734234452</v>
+        <v>0.4668563491942663</v>
       </c>
       <c r="N4">
-        <v>2.606282021093925</v>
+        <v>1.347417447853459</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.604605926700799</v>
+        <v>2.542697251813934</v>
       </c>
       <c r="C5">
-        <v>0.3077545846122689</v>
+        <v>0.5906091833915923</v>
       </c>
       <c r="D5">
-        <v>0.008157181559234061</v>
+        <v>0.006908462022128248</v>
       </c>
       <c r="E5">
-        <v>0.04466504598543164</v>
+        <v>0.02154708550779016</v>
       </c>
       <c r="F5">
-        <v>3.685006833174327</v>
+        <v>2.017769978007635</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,22 +583,22 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2.164205901958354</v>
+        <v>1.111841769584622</v>
       </c>
       <c r="J5">
-        <v>0.1036995374742373</v>
+        <v>0.05032165081919082</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3886283279267033</v>
+        <v>0.1930263612069396</v>
       </c>
       <c r="M5">
-        <v>0.5665078430751151</v>
+        <v>0.4510422679733708</v>
       </c>
       <c r="N5">
-        <v>2.612757886682473</v>
+        <v>1.363561024310847</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.601114421895716</v>
+        <v>2.526496160151964</v>
       </c>
       <c r="C6">
-        <v>0.3066659361981863</v>
+        <v>0.5862969929642361</v>
       </c>
       <c r="D6">
-        <v>0.008133800573290273</v>
+        <v>0.006848261699197167</v>
       </c>
       <c r="E6">
-        <v>0.04464931198927236</v>
+        <v>0.02150406877611744</v>
       </c>
       <c r="F6">
-        <v>3.684912919966493</v>
+        <v>2.013127396658405</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,22 +630,22 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2.164442654093058</v>
+        <v>1.110370592106385</v>
       </c>
       <c r="J6">
-        <v>0.1036988273336164</v>
+        <v>0.05032010365759909</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3885579454863688</v>
+        <v>0.192331194717319</v>
       </c>
       <c r="M6">
-        <v>0.5659946843121944</v>
+        <v>0.448425850566025</v>
       </c>
       <c r="N6">
-        <v>2.613845019354045</v>
+        <v>1.366266703888016</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.62548309340599</v>
+        <v>2.639251385099442</v>
       </c>
       <c r="C7">
-        <v>0.3142400601812767</v>
+        <v>0.6163044327781222</v>
       </c>
       <c r="D7">
-        <v>0.008295696209277281</v>
+        <v>0.00726921230376476</v>
       </c>
       <c r="E7">
-        <v>0.04475807496404727</v>
+        <v>0.02180300078175712</v>
       </c>
       <c r="F7">
-        <v>3.685727860625377</v>
+        <v>2.045700436069865</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,22 +677,22 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2.162889558505675</v>
+        <v>1.120772599458533</v>
       </c>
       <c r="J7">
-        <v>0.1037039575612777</v>
+        <v>0.05033142689436065</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3890612203617465</v>
+        <v>0.1971805236334916</v>
       </c>
       <c r="M7">
-        <v>0.5695839051754348</v>
+        <v>0.4666424267871747</v>
       </c>
       <c r="N7">
-        <v>2.606368564371792</v>
+        <v>1.347633477419983</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.736329342627357</v>
+        <v>3.145058118386544</v>
       </c>
       <c r="C8">
-        <v>0.3481042622232735</v>
+        <v>0.7508455813604087</v>
       </c>
       <c r="D8">
-        <v>0.009000662188476838</v>
+        <v>0.009214338957825419</v>
       </c>
       <c r="E8">
-        <v>0.04522701464574919</v>
+        <v>0.02313388799933058</v>
       </c>
       <c r="F8">
-        <v>3.693364361819263</v>
+        <v>2.198608073652622</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,22 +724,22 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.158271316009156</v>
+        <v>1.171656477950876</v>
       </c>
       <c r="J8">
-        <v>0.1037315606174278</v>
+        <v>0.05039632387056159</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3916466290038798</v>
+        <v>0.2192157199222962</v>
       </c>
       <c r="M8">
-        <v>0.586098858369219</v>
+        <v>0.5485369034890866</v>
       </c>
       <c r="N8">
-        <v>2.575096140284032</v>
+        <v>1.269151115366107</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.965633683675833</v>
+        <v>4.174809904292204</v>
       </c>
       <c r="C9">
-        <v>0.4161294350551543</v>
+        <v>1.024899782974501</v>
       </c>
       <c r="D9">
-        <v>0.01035213267090285</v>
+        <v>0.01346249736649341</v>
       </c>
       <c r="E9">
-        <v>0.0461078570859712</v>
+        <v>0.02582003082481954</v>
       </c>
       <c r="F9">
-        <v>3.722914251355007</v>
+        <v>2.537249937959587</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,22 +771,22 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2.157276658493075</v>
+        <v>1.29221981894834</v>
       </c>
       <c r="J9">
-        <v>0.1038034384508837</v>
+        <v>0.05058249478901899</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3980251022053238</v>
+        <v>0.2651343845568022</v>
       </c>
       <c r="M9">
-        <v>0.6209188409758113</v>
+        <v>0.7159265340193244</v>
       </c>
       <c r="N9">
-        <v>2.519964152420577</v>
+        <v>1.129768355549359</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.141436773030534</v>
+        <v>4.963339380891682</v>
       </c>
       <c r="C10">
-        <v>0.4671303913287375</v>
+        <v>1.235269384864807</v>
       </c>
       <c r="D10">
-        <v>0.01132903325937562</v>
+        <v>0.01697879572187944</v>
       </c>
       <c r="E10">
-        <v>0.04673220311902693</v>
+        <v>0.02787747687109388</v>
       </c>
       <c r="F10">
-        <v>3.753569981616181</v>
+        <v>2.815954305346338</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.161490814973732</v>
+        <v>1.396545368780835</v>
       </c>
       <c r="J10">
-        <v>0.1038670009276093</v>
+        <v>0.05076113861781373</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.403508869842014</v>
+        <v>0.300974522720665</v>
       </c>
       <c r="M10">
-        <v>0.647992586528261</v>
+        <v>0.8445288122093615</v>
       </c>
       <c r="N10">
-        <v>2.483244440010111</v>
+        <v>1.037357898079954</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.223020637216678</v>
+        <v>5.331264393530375</v>
       </c>
       <c r="C11">
-        <v>0.4905624910067559</v>
+        <v>1.333645053456848</v>
       </c>
       <c r="D11">
-        <v>0.01177059343518394</v>
+        <v>0.01869848477182501</v>
       </c>
       <c r="E11">
-        <v>0.04701145940366036</v>
+        <v>0.02884149068496633</v>
       </c>
       <c r="F11">
-        <v>3.769472287082749</v>
+        <v>2.950829566918003</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,22 +865,22 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.16448858152286</v>
+        <v>1.448208940213945</v>
       </c>
       <c r="J11">
-        <v>0.1038982398577843</v>
+        <v>0.05085310214360383</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.406176810923867</v>
+        <v>0.317850869716878</v>
       </c>
       <c r="M11">
-        <v>0.6606349379672309</v>
+        <v>0.9046298166760423</v>
       </c>
       <c r="N11">
-        <v>2.467364006691142</v>
+        <v>0.9977804765182583</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.254146587533853</v>
+        <v>5.472127748639764</v>
       </c>
       <c r="C12">
-        <v>0.4994694771293666</v>
+        <v>1.371350456940547</v>
       </c>
       <c r="D12">
-        <v>0.01193744266516461</v>
+        <v>0.01937030416704388</v>
       </c>
       <c r="E12">
-        <v>0.04711653529518767</v>
+        <v>0.02921153057094106</v>
       </c>
       <c r="F12">
-        <v>3.775776478165653</v>
+        <v>3.003218389869602</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,22 +912,22 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.165779689439148</v>
+        <v>1.468452018651334</v>
       </c>
       <c r="J12">
-        <v>0.1039104022071324</v>
+        <v>0.0508896246381827</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.4072120051474712</v>
+        <v>0.3243346921692023</v>
       </c>
       <c r="M12">
-        <v>0.6654692879338455</v>
+        <v>0.9276540459085325</v>
       </c>
       <c r="N12">
-        <v>2.461469172150906</v>
+        <v>0.983175680435572</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.247432736640235</v>
+        <v>5.441718232089841</v>
       </c>
       <c r="C13">
-        <v>0.4975496893531499</v>
+        <v>1.363208621116428</v>
       </c>
       <c r="D13">
-        <v>0.01190152394362798</v>
+        <v>0.01922464086371178</v>
       </c>
       <c r="E13">
-        <v>0.04709393502967973</v>
+        <v>0.02913159734469684</v>
       </c>
       <c r="F13">
-        <v>3.77440618581241</v>
+        <v>2.991874453027521</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,22 +959,22 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.165494683460793</v>
+        <v>1.464060816892527</v>
       </c>
       <c r="J13">
-        <v>0.1039077680451985</v>
+        <v>0.0508816805313721</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.4069879503575464</v>
+        <v>0.3229339577679298</v>
       </c>
       <c r="M13">
-        <v>0.6644260347499866</v>
+        <v>0.9226829587440477</v>
       </c>
       <c r="N13">
-        <v>2.462733444097495</v>
+        <v>0.9863035887989895</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.225576737791869</v>
+        <v>5.342821170036189</v>
       </c>
       <c r="C14">
-        <v>0.4912945948389051</v>
+        <v>1.336737609279169</v>
       </c>
       <c r="D14">
-        <v>0.01178432716183764</v>
+        <v>0.01875332186128631</v>
       </c>
       <c r="E14">
-        <v>0.0470201174653484</v>
+        <v>0.02887182816351253</v>
       </c>
       <c r="F14">
-        <v>3.769985272855251</v>
+        <v>2.955112351469978</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,22 +1006,22 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.164591673938517</v>
+        <v>1.449860278806085</v>
       </c>
       <c r="J14">
-        <v>0.1038992337983942</v>
+        <v>0.05085607183640661</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.4062614780188483</v>
+        <v>0.3183823650439734</v>
       </c>
       <c r="M14">
-        <v>0.6610317213680119</v>
+        <v>0.9065184994806756</v>
       </c>
       <c r="N14">
-        <v>2.466876653528267</v>
+        <v>0.9965710930199023</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.212219520704764</v>
+        <v>5.282450923170586</v>
       </c>
       <c r="C15">
-        <v>0.4874675792034395</v>
+        <v>1.320584455425319</v>
       </c>
       <c r="D15">
-        <v>0.01171249529203067</v>
+        <v>0.01846741667353768</v>
       </c>
       <c r="E15">
-        <v>0.04697481487716715</v>
+        <v>0.02871339231180503</v>
       </c>
       <c r="F15">
-        <v>3.767314132318603</v>
+        <v>2.932770484751785</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,22 +1053,22 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.164058875112261</v>
+        <v>1.441252858208557</v>
       </c>
       <c r="J15">
-        <v>0.1038940496326859</v>
+        <v>0.05084061206324542</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.4058197351275936</v>
+        <v>0.315606851970486</v>
       </c>
       <c r="M15">
-        <v>0.6589587238595769</v>
+        <v>0.8966529707977671</v>
       </c>
       <c r="N15">
-        <v>2.469429961998671</v>
+        <v>1.002910930928053</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.136137507340095</v>
+        <v>4.939497709328123</v>
       </c>
       <c r="C16">
-        <v>0.4656037468789691</v>
+        <v>1.228899774216018</v>
       </c>
       <c r="D16">
-        <v>0.01130012326481378</v>
+        <v>0.01686910174124634</v>
       </c>
       <c r="E16">
-        <v>0.04671385829664043</v>
+        <v>0.02781511953049876</v>
       </c>
       <c r="F16">
-        <v>3.752570185415493</v>
+        <v>2.807315200089704</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,22 +1100,22 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.161316694366377</v>
+        <v>1.393259818667474</v>
       </c>
       <c r="J16">
-        <v>0.1038650060398716</v>
+        <v>0.05075535692203914</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4033379996944859</v>
+        <v>0.2998840274370309</v>
       </c>
       <c r="M16">
-        <v>0.6471729493325071</v>
+        <v>0.8406361736508359</v>
       </c>
       <c r="N16">
-        <v>2.484298862387369</v>
+        <v>1.039996244217043</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.089876312570141</v>
+        <v>4.731611524781442</v>
       </c>
       <c r="C17">
-        <v>0.4522506194144285</v>
+        <v>1.173385505280407</v>
       </c>
       <c r="D17">
-        <v>0.01104645375632174</v>
+        <v>0.01592158196667626</v>
       </c>
       <c r="E17">
-        <v>0.04655255901742716</v>
+        <v>0.02727188431244532</v>
       </c>
       <c r="F17">
-        <v>3.744027112404581</v>
+        <v>2.732526619782305</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,22 +1147,22 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.159911616093154</v>
+        <v>1.364944959570494</v>
       </c>
       <c r="J17">
-        <v>0.1038477830040598</v>
+        <v>0.0507059013969311</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4018599159927447</v>
+        <v>0.290392498136768</v>
       </c>
       <c r="M17">
-        <v>0.6400263721896025</v>
+        <v>0.8067051015970677</v>
       </c>
       <c r="N17">
-        <v>2.493631603885426</v>
+        <v>1.063396279156144</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.063419628466704</v>
+        <v>4.612894490521398</v>
       </c>
       <c r="C18">
-        <v>0.4445920159603816</v>
+        <v>1.141702667912796</v>
       </c>
       <c r="D18">
-        <v>0.01090027985980058</v>
+        <v>0.01538767318110601</v>
       </c>
       <c r="E18">
-        <v>0.0464593349857827</v>
+        <v>0.02696200763866852</v>
       </c>
       <c r="F18">
-        <v>3.739297494425244</v>
+        <v>2.690261745820195</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,22 +1194,22 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.159205144083103</v>
+        <v>1.349049872805494</v>
       </c>
       <c r="J18">
-        <v>0.103838095597375</v>
+        <v>0.05067845186434461</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4010260789923024</v>
+        <v>0.2849863898915856</v>
       </c>
       <c r="M18">
-        <v>0.6359465670525992</v>
+        <v>0.7873370198857899</v>
       </c>
       <c r="N18">
-        <v>2.499077046893511</v>
+        <v>1.077085059817001</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.054487864600389</v>
+        <v>4.572839484628389</v>
       </c>
       <c r="C19">
-        <v>0.4420026679844113</v>
+        <v>1.13101598545893</v>
       </c>
       <c r="D19">
-        <v>0.01085074008192422</v>
+        <v>0.01520870947906516</v>
       </c>
       <c r="E19">
-        <v>0.04642769344803455</v>
+        <v>0.02685750459830327</v>
       </c>
       <c r="F19">
-        <v>3.737727723507987</v>
+        <v>2.676076354658022</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,22 +1241,22 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.158983395022261</v>
+        <v>1.343733076606497</v>
       </c>
       <c r="J19">
-        <v>0.1038348532337778</v>
+        <v>0.0506693245224934</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4007465594536939</v>
+        <v>0.2831647978076717</v>
       </c>
       <c r="M19">
-        <v>0.634570489840975</v>
+        <v>0.7808037605762053</v>
       </c>
       <c r="N19">
-        <v>2.500934080987648</v>
+        <v>1.081758485038222</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.094785210208158</v>
+        <v>4.753651561483593</v>
       </c>
       <c r="C20">
-        <v>0.4536698269426438</v>
+        <v>1.179269015057685</v>
       </c>
       <c r="D20">
-        <v>0.01107348489642135</v>
+        <v>0.01602127766625827</v>
       </c>
       <c r="E20">
-        <v>0.04656977597607259</v>
+        <v>0.027329439357481</v>
       </c>
       <c r="F20">
-        <v>3.744917473505666</v>
+        <v>2.740409174422268</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,22 +1288,22 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.160050660718383</v>
+        <v>1.36791815993351</v>
       </c>
       <c r="J20">
-        <v>0.1038495937877517</v>
+        <v>0.05071106186556484</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4020155718946228</v>
+        <v>0.2913973107677208</v>
       </c>
       <c r="M20">
-        <v>0.6407839582045014</v>
+        <v>0.8103015442736989</v>
       </c>
       <c r="N20">
-        <v>2.492630094762262</v>
+        <v>1.060881337230711</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.231990077322337</v>
+        <v>5.371826066982692</v>
       </c>
       <c r="C21">
-        <v>0.4931309477615287</v>
+        <v>1.34449991978363</v>
       </c>
       <c r="D21">
-        <v>0.01181876008401161</v>
+        <v>0.01889117132492046</v>
       </c>
       <c r="E21">
-        <v>0.04704181762337001</v>
+        <v>0.02894798500447671</v>
       </c>
       <c r="F21">
-        <v>3.771276132134574</v>
+        <v>2.965873301237622</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,22 +1335,22 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.164852674005658</v>
+        <v>1.454012248384828</v>
       </c>
       <c r="J21">
-        <v>0.1039017314904758</v>
+        <v>0.05086354625006173</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.4064741848837627</v>
+        <v>0.3197166585270708</v>
       </c>
       <c r="M21">
-        <v>0.6620274385487406</v>
+        <v>0.9112588903135901</v>
       </c>
       <c r="N21">
-        <v>2.465656467338313</v>
+        <v>0.9935446573422126</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.323013341181593</v>
+        <v>5.78492243544639</v>
       </c>
       <c r="C22">
-        <v>0.5191180643458324</v>
+        <v>1.455164244981518</v>
       </c>
       <c r="D22">
-        <v>0.01230376454229898</v>
+        <v>0.02088885661732931</v>
       </c>
       <c r="E22">
-        <v>0.04734641064543244</v>
+        <v>0.03003542192922026</v>
       </c>
       <c r="F22">
-        <v>3.790149142401077</v>
+        <v>3.120973011841357</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,22 +1382,22 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.168900125759279</v>
+        <v>1.514280096255206</v>
       </c>
       <c r="J22">
-        <v>0.1039377459707715</v>
+        <v>0.05097319388492494</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.4095332890088486</v>
+        <v>0.3387737252801628</v>
       </c>
       <c r="M22">
-        <v>0.6761850534748461</v>
+        <v>0.9788062547569254</v>
       </c>
       <c r="N22">
-        <v>2.448719907082314</v>
+        <v>0.9517805806883786</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.274308677796739</v>
+        <v>5.563536775148918</v>
       </c>
       <c r="C23">
-        <v>0.505230069745437</v>
+        <v>1.395831057062367</v>
       </c>
       <c r="D23">
-        <v>0.01204508254370396</v>
+        <v>0.01981025508223411</v>
       </c>
       <c r="E23">
-        <v>0.04718419759761439</v>
+        <v>0.0294519741883601</v>
       </c>
       <c r="F23">
-        <v>3.77992532776517</v>
+        <v>3.037429744025815</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,22 +1429,22 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.166656574021928</v>
+        <v>1.48172089808493</v>
       </c>
       <c r="J23">
-        <v>0.1039183473368812</v>
+        <v>0.05091369905724541</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.4078873145606394</v>
+        <v>0.3285484850677278</v>
       </c>
       <c r="M23">
-        <v>0.668603805062979</v>
+        <v>0.9425988440331992</v>
       </c>
       <c r="N23">
-        <v>2.457695819566545</v>
+        <v>0.973855119473356</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.092565463107746</v>
+        <v>4.743684786344488</v>
       </c>
       <c r="C24">
-        <v>0.4530281462971857</v>
+        <v>1.176608359373915</v>
       </c>
       <c r="D24">
-        <v>0.01106126516805261</v>
+        <v>0.0159761717444411</v>
       </c>
       <c r="E24">
-        <v>0.0465619937194317</v>
+        <v>0.02730341120263891</v>
       </c>
       <c r="F24">
-        <v>3.744514374686275</v>
+        <v>2.736843202389807</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,22 +1476,22 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.159987483052845</v>
+        <v>1.366572787037839</v>
       </c>
       <c r="J24">
-        <v>0.1038487744651313</v>
+        <v>0.05070872576721008</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4019451502311426</v>
+        <v>0.2909428778622498</v>
       </c>
       <c r="M24">
-        <v>0.6404413636828394</v>
+        <v>0.8086751611301324</v>
       </c>
       <c r="N24">
-        <v>2.493082628087798</v>
+        <v>1.062017610155984</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.902317230790402</v>
+        <v>3.891319692098193</v>
       </c>
       <c r="C25">
-        <v>0.3975498781706506</v>
+        <v>0.9493968247024043</v>
       </c>
       <c r="D25">
-        <v>0.00998954579001321</v>
+        <v>0.01225430055190202</v>
       </c>
       <c r="E25">
-        <v>0.04587363032348879</v>
+        <v>0.02508160638942325</v>
       </c>
       <c r="F25">
-        <v>3.713353733863883</v>
+        <v>2.440879464539151</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,22 +1523,22 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2.156679580816885</v>
+        <v>1.257081292640777</v>
       </c>
       <c r="J25">
-        <v>0.1037821004900454</v>
+        <v>0.0505252607162312</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3961594989406763</v>
+        <v>0.2523783485983557</v>
       </c>
       <c r="M25">
-        <v>0.6112377519734977</v>
+        <v>0.6697724237178662</v>
       </c>
       <c r="N25">
-        <v>2.534214764090862</v>
+        <v>1.165810318456991</v>
       </c>
       <c r="O25">
         <v>0</v>
